--- a/shoes.xlsx
+++ b/shoes.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\PythonProjects\priceChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DDF806-015C-4F02-9E9E-7722EE32AC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015999C5-82D0-4941-9625-05B8BD669752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip1" sheetId="13" r:id="rId1"/>
     <sheet name="flip2" sheetId="15" r:id="rId2"/>
-    <sheet name="flip3" sheetId="17" r:id="rId3"/>
-    <sheet name="flip4" sheetId="18" r:id="rId4"/>
-    <sheet name="expected" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
   <si>
     <t>sku</t>
   </si>
@@ -65,15 +62,6 @@
     <t>5Y</t>
   </si>
   <si>
-    <t>BB550WBG</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>485.1</t>
-  </si>
-  <si>
     <t>553558-130</t>
   </si>
   <si>
@@ -83,7 +71,61 @@
     <t>494.1</t>
   </si>
   <si>
-    <t>B37571</t>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>350.1</t>
+  </si>
+  <si>
+    <t>442.55</t>
+  </si>
+  <si>
+    <t>DH4619-003</t>
+  </si>
+  <si>
+    <t>DD1869-600</t>
+  </si>
+  <si>
+    <t>7.5W</t>
+  </si>
+  <si>
+    <t>DD3358-300</t>
+  </si>
+  <si>
+    <t>CW1589-100</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>DC9723-001</t>
+  </si>
+  <si>
+    <t>DD1503-109</t>
+  </si>
+  <si>
+    <t>8W</t>
+  </si>
+  <si>
+    <t>8.5W</t>
+  </si>
+  <si>
+    <t>10.5W</t>
+  </si>
+  <si>
+    <t>584.1</t>
+  </si>
+  <si>
+    <t>451.55</t>
+  </si>
+  <si>
+    <t>440.1</t>
+  </si>
+  <si>
+    <t>224.1</t>
+  </si>
+  <si>
+    <t>404.1</t>
   </si>
 </sst>
 </file>
@@ -402,62 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6EF593-E37B-4DE5-AD3A-D9CF59B434BF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>940</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6591612-CABF-4B02-A7EB-E44426165E25}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -493,66 +486,171 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>355</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>355</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>445</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>445</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>445</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>445</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C9EEA8-6BE5-4C2A-8EB3-5EE317A9C6E0}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6591612-CABF-4B02-A7EB-E44426165E25}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD070FA6-B8F4-484E-AA5A-239430225376}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,64 +677,225 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32110F26-BFE7-4936-BBF4-D38DA704916F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>445</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>409</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>409</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>409</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>409</v>
+      </c>
+      <c r="D17" t="s">
         <v>4</v>
       </c>
     </row>
